--- a/tests/Feature/config/property_zero.xlsx
+++ b/tests/Feature/config/property_zero.xlsx
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -151,13 +151,13 @@
     <t>Here I rent out the house</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>0Kommunale/Forsikring/Strøm/Eiendomsskatt 7300 mndSelling part of the house Asset rule Using current amount: 3000000 * 1</t>
+    <t>Kommunale/Forsikring/Strøm/Eiendomsskatt 7300 mndSelling part of the house Asset rule: Using current amount: 3000000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 3000000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 3000000 * 1</t>
   </si>
   <si>
     <t>total</t>
@@ -573,16 +573,16 @@
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -814,13 +814,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0.0</v>
@@ -890,13 +890,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0.0</v>
@@ -966,13 +966,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0.0</v>
@@ -1042,13 +1042,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0.0</v>
@@ -1118,13 +1118,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0.0</v>
@@ -1194,13 +1194,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0.0</v>
@@ -1270,13 +1270,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0.0</v>
@@ -1346,13 +1346,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0.0</v>
@@ -1422,13 +1422,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0.0</v>
@@ -1498,13 +1498,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0.0</v>
@@ -1574,13 +1574,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0.0</v>
@@ -1650,13 +1650,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0.0</v>
@@ -1726,13 +1726,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0.0</v>
@@ -1802,13 +1802,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0.0</v>
@@ -1878,13 +1878,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0.0</v>
@@ -1954,13 +1954,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0.0</v>
@@ -2030,13 +2030,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0.0</v>
@@ -2106,13 +2106,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0.0</v>
@@ -2182,13 +2182,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0.0</v>
@@ -2258,13 +2258,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0.0</v>
@@ -2334,13 +2334,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0.0</v>
@@ -2410,13 +2410,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0.0</v>
@@ -2486,13 +2486,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0.0</v>
@@ -2562,13 +2562,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0.0</v>
@@ -2638,13 +2638,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0.0</v>
@@ -2714,13 +2714,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0.0</v>
@@ -2790,13 +2790,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0.0</v>
@@ -2866,13 +2866,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0.0</v>
@@ -2942,13 +2942,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0.0</v>
@@ -3018,13 +3018,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0.0</v>
@@ -3094,13 +3094,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0.0</v>
@@ -3170,13 +3170,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0.0</v>
@@ -3204,17 +3204,17 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>15000.0</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>68123.0</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>1431877.0</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -3225,13 +3225,13 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>3000000.0</v>
+        <v>1568123.0</v>
       </c>
       <c r="S38" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>3000000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U38" s="6">
         <v>0</v>
@@ -3242,22 +3242,25 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0.0</v>
       </c>
       <c r="AE38"/>
+      <c r="AF38">
+        <v>0</v>
+      </c>
       <c r="AG38"/>
     </row>
     <row r="39" spans="1:33">
@@ -3280,17 +3283,17 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="8">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="8">
-        <v>0</v>
+        <v>14319.0</v>
       </c>
       <c r="L39" s="8">
-        <v>0</v>
+        <v>68804.0</v>
       </c>
       <c r="M39" s="8">
-        <v>0</v>
+        <v>1363073.0</v>
       </c>
       <c r="N39" s="8">
         <v>0</v>
@@ -3301,13 +3304,13 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>3000000.0</v>
+        <v>1636927.0</v>
       </c>
       <c r="S39" s="8">
         <v>3000000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>3000000.0</v>
+        <v>1583123.0</v>
       </c>
       <c r="U39" s="8">
         <v>0</v>
@@ -3318,23 +3321,25 @@
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0.0</v>
       </c>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
+      <c r="AF39" s="7">
+        <v>0</v>
+      </c>
       <c r="AG39"/>
     </row>
     <row r="40" spans="1:33">
@@ -3357,17 +3362,17 @@
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
-        <v>0</v>
+        <v>13631.0</v>
       </c>
       <c r="L40" s="11">
-        <v>0</v>
+        <v>69492.0</v>
       </c>
       <c r="M40" s="11">
-        <v>0</v>
+        <v>1293581.0</v>
       </c>
       <c r="N40" s="11">
         <v>0</v>
@@ -3378,13 +3383,13 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>3000000.0</v>
+        <v>1706419.0</v>
       </c>
       <c r="S40" s="11">
         <v>3000000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>3000000.0</v>
+        <v>1666246.0</v>
       </c>
       <c r="U40" s="11">
         <v>0</v>
@@ -3395,23 +3400,25 @@
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0.0</v>
       </c>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
+      <c r="AF40" s="10">
+        <v>0</v>
+      </c>
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33">
@@ -3434,17 +3441,17 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>12936.0</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>70187.0</v>
       </c>
       <c r="M41" s="1">
-        <v>0</v>
+        <v>1223393.0</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
@@ -3455,13 +3462,13 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>3000000.0</v>
+        <v>1776607.0</v>
       </c>
       <c r="S41" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>3000000.0</v>
+        <v>1749369.0</v>
       </c>
       <c r="U41" s="6">
         <v>0</v>
@@ -3472,22 +3479,25 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0.0</v>
       </c>
       <c r="AE41"/>
+      <c r="AF41">
+        <v>0</v>
+      </c>
       <c r="AG41"/>
     </row>
     <row r="42" spans="1:33">
@@ -3510,17 +3520,17 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>12234.0</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>70889.0</v>
       </c>
       <c r="M42" s="1">
-        <v>0</v>
+        <v>1152504.0</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
@@ -3531,13 +3541,13 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>3000000.0</v>
+        <v>1847496.0</v>
       </c>
       <c r="S42" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>3000000.0</v>
+        <v>1832492.0</v>
       </c>
       <c r="U42" s="6">
         <v>0</v>
@@ -3548,22 +3558,25 @@
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0.0</v>
       </c>
       <c r="AE42"/>
+      <c r="AF42">
+        <v>0</v>
+      </c>
       <c r="AG42"/>
     </row>
     <row r="43" spans="1:33">
@@ -3586,17 +3599,17 @@
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>11525.0</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>71598.0</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>1080906.0</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -3607,13 +3620,13 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>3000000.0</v>
+        <v>1919094.0</v>
       </c>
       <c r="S43" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>3000000.0</v>
+        <v>1915615.0</v>
       </c>
       <c r="U43" s="6">
         <v>0</v>
@@ -3624,22 +3637,25 @@
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0.0</v>
       </c>
       <c r="AE43"/>
+      <c r="AF43">
+        <v>0</v>
+      </c>
       <c r="AG43"/>
     </row>
     <row r="44" spans="1:33">
@@ -3662,17 +3678,17 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>10809.0</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>72314.0</v>
       </c>
       <c r="M44" s="1">
-        <v>0</v>
+        <v>1008593.0</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -3683,13 +3699,13 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>3000000.0</v>
+        <v>1991407.0</v>
       </c>
       <c r="S44" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>3000000.0</v>
+        <v>1998738.0</v>
       </c>
       <c r="U44" s="6">
         <v>0</v>
@@ -3700,22 +3716,25 @@
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0.0</v>
       </c>
       <c r="AE44"/>
+      <c r="AF44">
+        <v>0</v>
+      </c>
       <c r="AG44"/>
     </row>
     <row r="45" spans="1:33">
@@ -3738,17 +3757,17 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>10086.0</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>73037.0</v>
       </c>
       <c r="M45" s="1">
-        <v>0</v>
+        <v>935555.0</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -3759,13 +3778,13 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>3000000.0</v>
+        <v>2064445.0</v>
       </c>
       <c r="S45" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>3000000.0</v>
+        <v>2081861.0</v>
       </c>
       <c r="U45" s="6">
         <v>0</v>
@@ -3776,22 +3795,25 @@
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0.0</v>
       </c>
       <c r="AE45"/>
+      <c r="AF45">
+        <v>0</v>
+      </c>
       <c r="AG45"/>
     </row>
     <row r="46" spans="1:33">
@@ -3814,17 +3836,17 @@
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>9356.0</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>73767.0</v>
       </c>
       <c r="M46" s="1">
-        <v>0</v>
+        <v>861788.0</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
@@ -3835,13 +3857,13 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>3000000.0</v>
+        <v>2138212.0</v>
       </c>
       <c r="S46" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>3000000.0</v>
+        <v>2164984.0</v>
       </c>
       <c r="U46" s="6">
         <v>0</v>
@@ -3852,22 +3874,25 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0.0</v>
       </c>
       <c r="AE46"/>
+      <c r="AF46">
+        <v>0</v>
+      </c>
       <c r="AG46"/>
     </row>
     <row r="47" spans="1:33">
@@ -3890,17 +3915,17 @@
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>8618.0</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>74505.0</v>
       </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>787283.0</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -3911,13 +3936,13 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>3000000.0</v>
+        <v>2212717.0</v>
       </c>
       <c r="S47" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>3000000.0</v>
+        <v>2248107.0</v>
       </c>
       <c r="U47" s="6">
         <v>0</v>
@@ -3928,22 +3953,25 @@
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0.0</v>
       </c>
       <c r="AE47"/>
+      <c r="AF47">
+        <v>0</v>
+      </c>
       <c r="AG47"/>
     </row>
     <row r="48" spans="1:33">
@@ -3966,17 +3994,17 @@
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>7873.0</v>
       </c>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>75250.0</v>
       </c>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>712033.0</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
@@ -3987,13 +4015,13 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>3000000.0</v>
+        <v>2287967.0</v>
       </c>
       <c r="S48" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>3000000.0</v>
+        <v>2331230.0</v>
       </c>
       <c r="U48" s="6">
         <v>0</v>
@@ -4004,22 +4032,25 @@
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0.0</v>
       </c>
       <c r="AE48"/>
+      <c r="AF48">
+        <v>0</v>
+      </c>
       <c r="AG48"/>
     </row>
     <row r="49" spans="1:33">
@@ -4042,17 +4073,17 @@
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>7120.0</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>76003.0</v>
       </c>
       <c r="M49" s="1">
-        <v>0</v>
+        <v>636030.0</v>
       </c>
       <c r="N49" s="1">
         <v>0</v>
@@ -4063,13 +4094,13 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>3000000.0</v>
+        <v>2363970.0</v>
       </c>
       <c r="S49" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>3000000.0</v>
+        <v>2414353.0</v>
       </c>
       <c r="U49" s="6">
         <v>0</v>
@@ -4080,22 +4111,25 @@
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0.0</v>
       </c>
       <c r="AE49"/>
+      <c r="AF49">
+        <v>0</v>
+      </c>
       <c r="AG49"/>
     </row>
     <row r="50" spans="1:33">
@@ -4118,17 +4152,17 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>6360.0</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>76763.0</v>
       </c>
       <c r="M50" s="1">
-        <v>0</v>
+        <v>559268.0</v>
       </c>
       <c r="N50" s="1">
         <v>0</v>
@@ -4139,13 +4173,13 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>3000000.0</v>
+        <v>2440732.0</v>
       </c>
       <c r="S50" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>3000000.0</v>
+        <v>2497476.0</v>
       </c>
       <c r="U50" s="6">
         <v>0</v>
@@ -4156,22 +4190,25 @@
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0.0</v>
       </c>
       <c r="AE50"/>
+      <c r="AF50">
+        <v>0</v>
+      </c>
       <c r="AG50"/>
     </row>
     <row r="51" spans="1:33">
@@ -4194,17 +4231,17 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>5593.0</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>77530.0</v>
       </c>
       <c r="M51" s="1">
-        <v>0</v>
+        <v>481737.0</v>
       </c>
       <c r="N51" s="1">
         <v>0</v>
@@ -4215,13 +4252,13 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>3000000.0</v>
+        <v>2518263.0</v>
       </c>
       <c r="S51" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>3000000.0</v>
+        <v>2580599.0</v>
       </c>
       <c r="U51" s="6">
         <v>0</v>
@@ -4232,22 +4269,25 @@
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0.0</v>
       </c>
       <c r="AE51"/>
+      <c r="AF51">
+        <v>0</v>
+      </c>
       <c r="AG51"/>
     </row>
     <row r="52" spans="1:33">
@@ -4270,17 +4310,17 @@
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>4817.0</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>78306.0</v>
       </c>
       <c r="M52" s="1">
-        <v>0</v>
+        <v>403432.0</v>
       </c>
       <c r="N52" s="1">
         <v>0</v>
@@ -4291,13 +4331,13 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>3000000.0</v>
+        <v>2596568.0</v>
       </c>
       <c r="S52" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>3000000.0</v>
+        <v>2663722.0</v>
       </c>
       <c r="U52" s="6">
         <v>0</v>
@@ -4308,22 +4348,25 @@
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0.0</v>
       </c>
       <c r="AE52"/>
+      <c r="AF52">
+        <v>0</v>
+      </c>
       <c r="AG52"/>
     </row>
     <row r="53" spans="1:33">
@@ -4346,17 +4389,17 @@
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="13">
-        <v>0</v>
+        <v>4034.0</v>
       </c>
       <c r="L53" s="13">
-        <v>0</v>
+        <v>79089.0</v>
       </c>
       <c r="M53" s="13">
-        <v>0</v>
+        <v>324343.0</v>
       </c>
       <c r="N53" s="13">
         <v>0</v>
@@ -4367,13 +4410,13 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>3000000.0</v>
+        <v>2675657.0</v>
       </c>
       <c r="S53" s="13">
         <v>3000000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>3000000.0</v>
+        <v>2746845.0</v>
       </c>
       <c r="U53" s="13">
         <v>0</v>
@@ -4384,23 +4427,25 @@
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0.0</v>
       </c>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
       <c r="AG53"/>
     </row>
     <row r="54" spans="1:33">
@@ -4423,17 +4468,17 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>3243.0</v>
       </c>
       <c r="L54" s="1">
-        <v>0</v>
+        <v>79880.0</v>
       </c>
       <c r="M54" s="1">
-        <v>0</v>
+        <v>244463.0</v>
       </c>
       <c r="N54" s="1">
         <v>0</v>
@@ -4444,13 +4489,13 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>3000000.0</v>
+        <v>2755537.0</v>
       </c>
       <c r="S54" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>3000000.0</v>
+        <v>2829968.0</v>
       </c>
       <c r="U54" s="6">
         <v>0</v>
@@ -4461,22 +4506,25 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0.0</v>
       </c>
       <c r="AE54"/>
+      <c r="AF54">
+        <v>0</v>
+      </c>
       <c r="AG54"/>
     </row>
     <row r="55" spans="1:33">
@@ -4499,17 +4547,17 @@
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>2445.0</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
+        <v>80678.0</v>
       </c>
       <c r="M55" s="1">
-        <v>0</v>
+        <v>163785.0</v>
       </c>
       <c r="N55" s="1">
         <v>0</v>
@@ -4520,13 +4568,13 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>3000000.0</v>
+        <v>2836215.0</v>
       </c>
       <c r="S55" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>3000000.0</v>
+        <v>2913091.0</v>
       </c>
       <c r="U55" s="6">
         <v>0</v>
@@ -4537,22 +4585,25 @@
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0.0</v>
       </c>
       <c r="AE55"/>
+      <c r="AF55">
+        <v>0</v>
+      </c>
       <c r="AG55"/>
     </row>
     <row r="56" spans="1:33">
@@ -4575,17 +4626,17 @@
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1638.0</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>81485.0</v>
       </c>
       <c r="M56" s="1">
-        <v>0</v>
+        <v>82300.0</v>
       </c>
       <c r="N56" s="1">
         <v>0</v>
@@ -4596,13 +4647,13 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>3000000.0</v>
+        <v>2917700.0</v>
       </c>
       <c r="S56" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>3000000.0</v>
+        <v>2996214.0</v>
       </c>
       <c r="U56" s="6">
         <v>0</v>
@@ -4613,22 +4664,25 @@
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0.0</v>
       </c>
       <c r="AE56"/>
+      <c r="AF56">
+        <v>0</v>
+      </c>
       <c r="AG56"/>
     </row>
     <row r="57" spans="1:33">
@@ -4651,17 +4705,17 @@
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
-        <v>0</v>
+        <v>83123.0</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="13">
-        <v>0</v>
+        <v>823.0</v>
       </c>
       <c r="L57" s="13">
-        <v>0</v>
+        <v>82300.0</v>
       </c>
       <c r="M57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N57" s="13">
         <v>0</v>
@@ -4678,7 +4732,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U57" s="13">
         <v>0</v>
@@ -4689,23 +4743,25 @@
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0.0</v>
       </c>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
       <c r="AG57"/>
     </row>
     <row r="58" spans="1:33">
@@ -4755,7 +4811,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U58" s="6">
         <v>0</v>
@@ -4770,13 +4826,13 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0.0</v>
@@ -4831,7 +4887,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U59" s="6">
         <v>0</v>
@@ -4846,13 +4902,13 @@
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0.0</v>
@@ -4907,7 +4963,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U60" s="6">
         <v>0</v>
@@ -4922,13 +4978,13 @@
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0.0</v>
@@ -4983,7 +5039,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U61" s="6">
         <v>0</v>
@@ -4998,13 +5054,13 @@
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0.0</v>
@@ -5059,7 +5115,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U62" s="6">
         <v>0</v>
@@ -5074,13 +5130,13 @@
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0.0</v>
@@ -5135,7 +5191,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U63" s="6">
         <v>0</v>
@@ -5150,13 +5206,13 @@
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0.0</v>
@@ -5211,7 +5267,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U64" s="6">
         <v>0</v>
@@ -5226,13 +5282,13 @@
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0.0</v>
@@ -5287,7 +5343,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U65" s="6">
         <v>0</v>
@@ -5302,13 +5358,13 @@
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0.0</v>
@@ -5363,7 +5419,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U66" s="6">
         <v>0</v>
@@ -5378,13 +5434,13 @@
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0.0</v>
@@ -5439,7 +5495,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U67" s="6">
         <v>0</v>
@@ -5454,13 +5510,13 @@
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0.0</v>
@@ -5515,7 +5571,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U68" s="6">
         <v>0</v>
@@ -5530,13 +5586,13 @@
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0.0</v>
@@ -5591,7 +5647,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U69" s="6">
         <v>0</v>
@@ -5606,13 +5662,13 @@
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0.0</v>
@@ -5667,7 +5723,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U70" s="6">
         <v>0</v>
@@ -5682,13 +5738,13 @@
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0.0</v>
@@ -5743,7 +5799,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U71" s="6">
         <v>0</v>
@@ -5758,13 +5814,13 @@
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0.0</v>
@@ -5819,7 +5875,7 @@
         <v>3000000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U72" s="5">
         <v>0</v>
@@ -5834,13 +5890,13 @@
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0.0</v>
@@ -6128,16 +6184,16 @@
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="30.564" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6355,7 +6411,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6363,13 +6419,13 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD6">
         <v>0.0</v>
@@ -6423,7 +6479,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6431,13 +6487,13 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD7">
         <v>0.0</v>
@@ -6491,7 +6547,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6499,13 +6555,13 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8">
         <v>0.0</v>
@@ -6559,7 +6615,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6567,13 +6623,13 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD9">
         <v>0.0</v>
@@ -6627,7 +6683,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6635,13 +6691,13 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD10">
         <v>0.0</v>
@@ -6695,7 +6751,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6703,13 +6759,13 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD11">
         <v>0.0</v>
@@ -6763,7 +6819,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6771,13 +6827,13 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD12">
         <v>0.0</v>
@@ -6831,7 +6887,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6839,13 +6895,13 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD13">
         <v>0.0</v>
@@ -6899,7 +6955,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6907,13 +6963,13 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD14">
         <v>0.0</v>
@@ -6967,7 +7023,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -6975,13 +7031,13 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD15">
         <v>0.0</v>
@@ -7035,7 +7091,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7043,13 +7099,13 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD16">
         <v>0.0</v>
@@ -7103,7 +7159,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7111,13 +7167,13 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD17">
         <v>0.0</v>
@@ -7171,7 +7227,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7179,13 +7235,13 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD18">
         <v>0.0</v>
@@ -7239,7 +7295,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7247,13 +7303,13 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD19">
         <v>0.0</v>
@@ -7307,7 +7363,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7315,13 +7371,13 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD20">
         <v>0.0</v>
@@ -7375,7 +7431,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7383,13 +7439,13 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD21">
         <v>0.0</v>
@@ -7443,7 +7499,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7451,13 +7507,13 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD22">
         <v>0.0</v>
@@ -7511,7 +7567,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7519,13 +7575,13 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC23" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD23">
         <v>0.0</v>
@@ -7579,7 +7635,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7587,13 +7643,13 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24">
         <v>0.0</v>
@@ -7647,7 +7703,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7655,13 +7711,13 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD25">
         <v>0.0</v>
@@ -7715,7 +7771,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7723,13 +7779,13 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC26" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD26">
         <v>0.0</v>
@@ -7783,7 +7839,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7791,13 +7847,13 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC27" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD27">
         <v>0.0</v>
@@ -7851,7 +7907,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7859,13 +7915,13 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC28" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD28">
         <v>0.0</v>
@@ -7919,7 +7975,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -7927,13 +7983,13 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC29" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD29">
         <v>0.0</v>
@@ -7987,7 +8043,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -7995,13 +8051,13 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC30" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD30">
         <v>0.0</v>
@@ -8055,7 +8111,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8063,13 +8119,13 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC31" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD31">
         <v>0.0</v>
@@ -8123,7 +8179,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8131,13 +8187,13 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC32" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD32">
         <v>0.0</v>
@@ -8191,7 +8247,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8199,13 +8255,13 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC33" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD33">
         <v>0.0</v>
@@ -8259,7 +8315,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8267,13 +8323,13 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD34">
         <v>0.0</v>
@@ -8327,7 +8383,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8335,13 +8391,13 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC35" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD35">
         <v>0.0</v>
@@ -8395,7 +8451,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8403,13 +8459,13 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC36" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD36">
         <v>0.0</v>
@@ -8463,7 +8519,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8471,13 +8527,13 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC37" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD37">
         <v>0.0</v>
@@ -8506,11 +8562,21 @@
         <v>0.0</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="I38" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K38" s="1">
+        <v>15000.0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>68123.0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1431877.0</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
@@ -8518,38 +8584,36 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>3000000.0</v>
+        <v>1568123.0</v>
       </c>
       <c r="S38" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T38" s="1">
-        <v>3000000.0</v>
+        <v>1500000.0</v>
       </c>
       <c r="U38" s="6">
         <v>0</v>
       </c>
-      <c r="V38" s="2">
-        <v>0</v>
-      </c>
+      <c r="V38" s="2"/>
       <c r="W38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD38">
         <v>0.0</v>
@@ -8578,11 +8642,21 @@
         <v>0.0</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="I39" s="8">
+        <v>83123.0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="K39" s="8">
+        <v>14319.0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>68804.0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1363073.0</v>
+      </c>
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
@@ -8590,38 +8664,36 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>3000000.0</v>
+        <v>1636927.0</v>
       </c>
       <c r="S39" s="8">
         <v>3000000.0</v>
       </c>
       <c r="T39" s="8">
-        <v>3000000.0</v>
+        <v>1583123.0</v>
       </c>
       <c r="U39" s="8">
         <v>0</v>
       </c>
-      <c r="V39" s="9">
-        <v>0</v>
-      </c>
+      <c r="V39" s="9"/>
       <c r="W39" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
       <c r="Y39" s="8">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC39" s="8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD39" s="7">
         <v>0.0</v>
@@ -8651,11 +8723,21 @@
         <v>0.0</v>
       </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="I40" s="11">
+        <v>83123.0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="K40" s="11">
+        <v>13631.0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>69492.0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>1293581.0</v>
+      </c>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
@@ -8663,38 +8745,36 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>3000000.0</v>
+        <v>1706419.0</v>
       </c>
       <c r="S40" s="11">
         <v>3000000.0</v>
       </c>
       <c r="T40" s="11">
-        <v>3000000.0</v>
+        <v>1666246.0</v>
       </c>
       <c r="U40" s="11">
         <v>0</v>
       </c>
-      <c r="V40" s="12">
-        <v>0</v>
-      </c>
+      <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD40" s="10">
         <v>0.0</v>
@@ -8724,11 +8804,21 @@
         <v>0.0</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="I41" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K41" s="1">
+        <v>12936.0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>70187.0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1223393.0</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
@@ -8736,38 +8826,36 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>3000000.0</v>
+        <v>1776607.0</v>
       </c>
       <c r="S41" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T41" s="1">
-        <v>3000000.0</v>
+        <v>1749369.0</v>
       </c>
       <c r="U41" s="6">
         <v>0</v>
       </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
+      <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC41" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD41">
         <v>0.0</v>
@@ -8796,11 +8884,21 @@
         <v>0.0</v>
       </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="I42" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K42" s="1">
+        <v>12234.0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>70889.0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1152504.0</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
@@ -8808,38 +8906,36 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>3000000.0</v>
+        <v>1847496.0</v>
       </c>
       <c r="S42" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T42" s="1">
-        <v>3000000.0</v>
+        <v>1832492.0</v>
       </c>
       <c r="U42" s="6">
         <v>0</v>
       </c>
-      <c r="V42" s="2">
-        <v>0</v>
-      </c>
+      <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC42" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD42">
         <v>0.0</v>
@@ -8868,11 +8964,21 @@
         <v>0.0</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="I43" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K43" s="1">
+        <v>11525.0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>71598.0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1080906.0</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
@@ -8880,38 +8986,36 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>3000000.0</v>
+        <v>1919094.0</v>
       </c>
       <c r="S43" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T43" s="1">
-        <v>3000000.0</v>
+        <v>1915615.0</v>
       </c>
       <c r="U43" s="6">
         <v>0</v>
       </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
+      <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC43" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD43">
         <v>0.0</v>
@@ -8940,11 +9044,21 @@
         <v>0.0</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="I44" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K44" s="1">
+        <v>10809.0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>72314.0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1008593.0</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
@@ -8952,38 +9066,36 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>3000000.0</v>
+        <v>1991407.0</v>
       </c>
       <c r="S44" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T44" s="1">
-        <v>3000000.0</v>
+        <v>1998738.0</v>
       </c>
       <c r="U44" s="6">
         <v>0</v>
       </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
+      <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC44" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD44">
         <v>0.0</v>
@@ -9012,11 +9124,21 @@
         <v>0.0</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="I45" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K45" s="1">
+        <v>10086.0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>73037.0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>935555.0</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
@@ -9024,38 +9146,36 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>3000000.0</v>
+        <v>2064445.0</v>
       </c>
       <c r="S45" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T45" s="1">
-        <v>3000000.0</v>
+        <v>2081861.0</v>
       </c>
       <c r="U45" s="6">
         <v>0</v>
       </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
+      <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD45">
         <v>0.0</v>
@@ -9084,11 +9204,21 @@
         <v>0.0</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="I46" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9356.0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>73767.0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>861788.0</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
@@ -9096,38 +9226,36 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>3000000.0</v>
+        <v>2138212.0</v>
       </c>
       <c r="S46" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T46" s="1">
-        <v>3000000.0</v>
+        <v>2164984.0</v>
       </c>
       <c r="U46" s="6">
         <v>0</v>
       </c>
-      <c r="V46" s="2">
-        <v>0</v>
-      </c>
+      <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC46" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD46">
         <v>0.0</v>
@@ -9156,11 +9284,21 @@
         <v>0.0</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="I47" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K47" s="1">
+        <v>8618.0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>74505.0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>787283.0</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
@@ -9168,38 +9306,36 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>3000000.0</v>
+        <v>2212717.0</v>
       </c>
       <c r="S47" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T47" s="1">
-        <v>3000000.0</v>
+        <v>2248107.0</v>
       </c>
       <c r="U47" s="6">
         <v>0</v>
       </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
+      <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD47">
         <v>0.0</v>
@@ -9228,11 +9364,21 @@
         <v>0.0</v>
       </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="I48" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K48" s="1">
+        <v>7873.0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>75250.0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>712033.0</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
@@ -9240,38 +9386,36 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>3000000.0</v>
+        <v>2287967.0</v>
       </c>
       <c r="S48" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T48" s="1">
-        <v>3000000.0</v>
+        <v>2331230.0</v>
       </c>
       <c r="U48" s="6">
         <v>0</v>
       </c>
-      <c r="V48" s="2">
-        <v>0</v>
-      </c>
+      <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC48" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD48">
         <v>0.0</v>
@@ -9300,11 +9444,21 @@
         <v>0.0</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="I49" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K49" s="1">
+        <v>7120.0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>76003.0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>636030.0</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
@@ -9312,38 +9466,36 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>3000000.0</v>
+        <v>2363970.0</v>
       </c>
       <c r="S49" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T49" s="1">
-        <v>3000000.0</v>
+        <v>2414353.0</v>
       </c>
       <c r="U49" s="6">
         <v>0</v>
       </c>
-      <c r="V49" s="2">
-        <v>0</v>
-      </c>
+      <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD49">
         <v>0.0</v>
@@ -9372,11 +9524,21 @@
         <v>0.0</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="I50" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K50" s="1">
+        <v>6360.0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>76763.0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>559268.0</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
@@ -9384,38 +9546,36 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>3000000.0</v>
+        <v>2440732.0</v>
       </c>
       <c r="S50" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T50" s="1">
-        <v>3000000.0</v>
+        <v>2497476.0</v>
       </c>
       <c r="U50" s="6">
         <v>0</v>
       </c>
-      <c r="V50" s="2">
-        <v>0</v>
-      </c>
+      <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD50">
         <v>0.0</v>
@@ -9444,11 +9604,21 @@
         <v>0.0</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="I51" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K51" s="1">
+        <v>5593.0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>77530.0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>481737.0</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
@@ -9456,38 +9626,36 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>3000000.0</v>
+        <v>2518263.0</v>
       </c>
       <c r="S51" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T51" s="1">
-        <v>3000000.0</v>
+        <v>2580599.0</v>
       </c>
       <c r="U51" s="6">
         <v>0</v>
       </c>
-      <c r="V51" s="2">
-        <v>0</v>
-      </c>
+      <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC51" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD51">
         <v>0.0</v>
@@ -9516,11 +9684,21 @@
         <v>0.0</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="I52" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K52" s="1">
+        <v>4817.0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>78306.0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>403432.0</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
@@ -9528,38 +9706,36 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>3000000.0</v>
+        <v>2596568.0</v>
       </c>
       <c r="S52" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T52" s="1">
-        <v>3000000.0</v>
+        <v>2663722.0</v>
       </c>
       <c r="U52" s="6">
         <v>0</v>
       </c>
-      <c r="V52" s="2">
-        <v>0</v>
-      </c>
+      <c r="V52" s="2"/>
       <c r="W52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC52" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD52">
         <v>0.0</v>
@@ -9588,11 +9764,21 @@
         <v>0.0</v>
       </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
+      <c r="I53" s="13">
+        <v>83123.0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K53" s="13">
+        <v>4034.0</v>
+      </c>
+      <c r="L53" s="13">
+        <v>79089.0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>324343.0</v>
+      </c>
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
@@ -9600,38 +9786,36 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>3000000.0</v>
+        <v>2675657.0</v>
       </c>
       <c r="S53" s="13">
         <v>3000000.0</v>
       </c>
       <c r="T53" s="13">
-        <v>3000000.0</v>
+        <v>2746845.0</v>
       </c>
       <c r="U53" s="13">
         <v>0</v>
       </c>
-      <c r="V53" s="14">
-        <v>0</v>
-      </c>
+      <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC53" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD53" s="3">
         <v>0.0</v>
@@ -9661,11 +9845,21 @@
         <v>0.0</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="I54" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3243.0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>79880.0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>244463.0</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
@@ -9673,38 +9867,36 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>3000000.0</v>
+        <v>2755537.0</v>
       </c>
       <c r="S54" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T54" s="1">
-        <v>3000000.0</v>
+        <v>2829968.0</v>
       </c>
       <c r="U54" s="6">
         <v>0</v>
       </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
+      <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC54" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD54">
         <v>0.0</v>
@@ -9733,11 +9925,21 @@
         <v>0.0</v>
       </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="I55" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K55" s="1">
+        <v>2445.0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>80678.0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>163785.0</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
@@ -9745,38 +9947,36 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>3000000.0</v>
+        <v>2836215.0</v>
       </c>
       <c r="S55" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T55" s="1">
-        <v>3000000.0</v>
+        <v>2913091.0</v>
       </c>
       <c r="U55" s="6">
         <v>0</v>
       </c>
-      <c r="V55" s="2">
-        <v>0</v>
-      </c>
+      <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC55" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD55">
         <v>0.0</v>
@@ -9805,11 +10005,21 @@
         <v>0.0</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="I56" s="1">
+        <v>83123.0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1638.0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>81485.0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>82300.0</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
@@ -9817,38 +10027,36 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>3000000.0</v>
+        <v>2917700.0</v>
       </c>
       <c r="S56" s="1">
         <v>3000000.0</v>
       </c>
       <c r="T56" s="1">
-        <v>3000000.0</v>
+        <v>2996214.0</v>
       </c>
       <c r="U56" s="6">
         <v>0</v>
       </c>
-      <c r="V56" s="2">
-        <v>0</v>
-      </c>
+      <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC56" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD56">
         <v>0.0</v>
@@ -9877,11 +10085,21 @@
         <v>0.0</v>
       </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
+      <c r="I57" s="13">
+        <v>83123.0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K57" s="13">
+        <v>823.0</v>
+      </c>
+      <c r="L57" s="13">
+        <v>82300.0</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0.0</v>
+      </c>
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
@@ -9895,32 +10113,30 @@
         <v>3000000.0</v>
       </c>
       <c r="T57" s="13">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U57" s="13">
         <v>0</v>
       </c>
-      <c r="V57" s="14">
-        <v>0</v>
-      </c>
+      <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>-87600.0</v>
+        <v>-170723.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD57" s="3">
         <v>0.0</v>
@@ -9968,16 +10184,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T58" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U58" s="6">
         <v>0</v>
       </c>
-      <c r="V58" s="2">
-        <v>0</v>
-      </c>
+      <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
@@ -9987,13 +10201,13 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD58">
         <v>0.0</v>
@@ -10040,16 +10254,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T59" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U59" s="6">
         <v>0</v>
       </c>
-      <c r="V59" s="2">
-        <v>0</v>
-      </c>
+      <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
@@ -10059,13 +10271,13 @@
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC59" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD59">
         <v>0.0</v>
@@ -10112,16 +10324,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T60" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U60" s="6">
         <v>0</v>
       </c>
-      <c r="V60" s="2">
-        <v>0</v>
-      </c>
+      <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
@@ -10131,13 +10341,13 @@
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC60" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD60">
         <v>0.0</v>
@@ -10184,16 +10394,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T61" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U61" s="6">
         <v>0</v>
       </c>
-      <c r="V61" s="2">
-        <v>0</v>
-      </c>
+      <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
@@ -10203,13 +10411,13 @@
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD61">
         <v>0.0</v>
@@ -10256,16 +10464,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T62" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U62" s="6">
         <v>0</v>
       </c>
-      <c r="V62" s="2">
-        <v>0</v>
-      </c>
+      <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
@@ -10275,13 +10481,13 @@
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD62">
         <v>0.0</v>
@@ -10328,16 +10534,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T63" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U63" s="6">
         <v>0</v>
       </c>
-      <c r="V63" s="2">
-        <v>0</v>
-      </c>
+      <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
@@ -10347,13 +10551,13 @@
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC63" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD63">
         <v>0.0</v>
@@ -10400,16 +10604,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T64" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U64" s="6">
         <v>0</v>
       </c>
-      <c r="V64" s="2">
-        <v>0</v>
-      </c>
+      <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
@@ -10419,13 +10621,13 @@
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC64" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD64">
         <v>0.0</v>
@@ -10472,16 +10674,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T65" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U65" s="6">
         <v>0</v>
       </c>
-      <c r="V65" s="2">
-        <v>0</v>
-      </c>
+      <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
@@ -10491,13 +10691,13 @@
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC65" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD65">
         <v>0.0</v>
@@ -10544,16 +10744,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T66" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U66" s="6">
         <v>0</v>
       </c>
-      <c r="V66" s="2">
-        <v>0</v>
-      </c>
+      <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
@@ -10563,13 +10761,13 @@
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC66" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD66">
         <v>0.0</v>
@@ -10616,16 +10814,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T67" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U67" s="6">
         <v>0</v>
       </c>
-      <c r="V67" s="2">
-        <v>0</v>
-      </c>
+      <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
@@ -10635,13 +10831,13 @@
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC67" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD67">
         <v>0.0</v>
@@ -10688,16 +10884,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T68" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U68" s="6">
         <v>0</v>
       </c>
-      <c r="V68" s="2">
-        <v>0</v>
-      </c>
+      <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
@@ -10707,13 +10901,13 @@
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC68" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD68">
         <v>0.0</v>
@@ -10760,16 +10954,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T69" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U69" s="6">
         <v>0</v>
       </c>
-      <c r="V69" s="2">
-        <v>0</v>
-      </c>
+      <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
@@ -10779,13 +10971,13 @@
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC69" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD69">
         <v>0.0</v>
@@ -10832,16 +11024,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T70" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U70" s="6">
         <v>0</v>
       </c>
-      <c r="V70" s="2">
-        <v>0</v>
-      </c>
+      <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
@@ -10851,13 +11041,13 @@
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC70" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD70">
         <v>0.0</v>
@@ -10904,16 +11094,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T71" s="1">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U71" s="6">
         <v>0</v>
       </c>
-      <c r="V71" s="2">
-        <v>0</v>
-      </c>
+      <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
@@ -10923,13 +11111,13 @@
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD71">
         <v>0.0</v>
@@ -10976,16 +11164,14 @@
         <v>3000000.0</v>
       </c>
       <c r="T72" s="5">
-        <v>3000000.0</v>
+        <v>3079337.0</v>
       </c>
       <c r="U72" s="5">
         <v>0</v>
       </c>
-      <c r="V72" s="16">
-        <v>0</v>
-      </c>
+      <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
@@ -10995,13 +11181,13 @@
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD72" s="15">
         <v>0.0</v>

--- a/tests/Feature/config/property_zero.xlsx
+++ b/tests/Feature/config/property_zero.xlsx
@@ -609,6 +609,8 @@
     <col min="32" max="32" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -3647,10 +3649,10 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF38" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="1">
@@ -3660,12 +3662,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AK38" s="1"/>
-      <c r="AL38" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL38" s="2"/>
       <c r="AM38"/>
     </row>
     <row r="39" spans="1:39">
@@ -3736,10 +3736,10 @@
       </c>
       <c r="AD39" s="9"/>
       <c r="AE39" s="8">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF39" s="8">
-        <v>-328902.0</v>
+        <v>-337302.0</v>
       </c>
       <c r="AG39" s="9"/>
       <c r="AH39" s="8">
@@ -3749,12 +3749,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ39" s="8">
-        <v>0.0</v>
+        <v>-14319.0</v>
       </c>
       <c r="AK39" s="8"/>
-      <c r="AL39" s="9">
-        <v>0</v>
-      </c>
+      <c r="AL39" s="9"/>
       <c r="AM39" s="7"/>
     </row>
     <row r="40" spans="1:39">
@@ -3825,10 +3823,10 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF40" s="11">
-        <v>-493353.0</v>
+        <v>-505953.0</v>
       </c>
       <c r="AG40" s="12"/>
       <c r="AH40" s="11">
@@ -3838,12 +3836,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ40" s="11">
-        <v>0.0</v>
+        <v>-13631.0</v>
       </c>
       <c r="AK40" s="11"/>
-      <c r="AL40" s="12">
-        <v>0</v>
-      </c>
+      <c r="AL40" s="12"/>
       <c r="AM40" s="10"/>
     </row>
     <row r="41" spans="1:39">
@@ -3914,10 +3910,10 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF41" s="1">
-        <v>-657804.0</v>
+        <v>-674604.0</v>
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" s="1">
@@ -3927,12 +3923,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>0.0</v>
+        <v>-12936.0</v>
       </c>
       <c r="AK41" s="1"/>
-      <c r="AL41" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL41" s="2"/>
       <c r="AM41"/>
     </row>
     <row r="42" spans="1:39">
@@ -4003,10 +3997,10 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF42" s="1">
-        <v>-822255.0</v>
+        <v>-843255.0</v>
       </c>
       <c r="AG42" s="2"/>
       <c r="AH42" s="1">
@@ -4016,12 +4010,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0</v>
+        <v>-12234.0</v>
       </c>
       <c r="AK42" s="1"/>
-      <c r="AL42" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL42" s="2"/>
       <c r="AM42"/>
     </row>
     <row r="43" spans="1:39">
@@ -4092,10 +4084,10 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF43" s="1">
-        <v>-986706.0</v>
+        <v>-1011906.0</v>
       </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="1">
@@ -4105,12 +4097,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.0</v>
+        <v>-11525.0</v>
       </c>
       <c r="AK43" s="1"/>
-      <c r="AL43" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL43" s="2"/>
       <c r="AM43"/>
     </row>
     <row r="44" spans="1:39">
@@ -4181,10 +4171,10 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF44" s="1">
-        <v>-1151157.0</v>
+        <v>-1180557.0</v>
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" s="1">
@@ -4194,12 +4184,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0.0</v>
+        <v>-10809.0</v>
       </c>
       <c r="AK44" s="1"/>
-      <c r="AL44" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL44" s="2"/>
       <c r="AM44"/>
     </row>
     <row r="45" spans="1:39">
@@ -4270,10 +4258,10 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF45" s="1">
-        <v>-1315608.0</v>
+        <v>-1349208.0</v>
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" s="1">
@@ -4283,12 +4271,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0.0</v>
+        <v>-10086.0</v>
       </c>
       <c r="AK45" s="1"/>
-      <c r="AL45" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL45" s="2"/>
       <c r="AM45"/>
     </row>
     <row r="46" spans="1:39">
@@ -4359,10 +4345,10 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF46" s="1">
-        <v>-1480059.0</v>
+        <v>-1517859.0</v>
       </c>
       <c r="AG46" s="2"/>
       <c r="AH46" s="1">
@@ -4372,12 +4358,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0.0</v>
+        <v>-9356.0</v>
       </c>
       <c r="AK46" s="1"/>
-      <c r="AL46" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL46" s="2"/>
       <c r="AM46"/>
     </row>
     <row r="47" spans="1:39">
@@ -4448,10 +4432,10 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF47" s="1">
-        <v>-1644510.0</v>
+        <v>-1686510.0</v>
       </c>
       <c r="AG47" s="2"/>
       <c r="AH47" s="1">
@@ -4461,12 +4445,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0.0</v>
+        <v>-8618.0</v>
       </c>
       <c r="AK47" s="1"/>
-      <c r="AL47" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL47" s="2"/>
       <c r="AM47"/>
     </row>
     <row r="48" spans="1:39">
@@ -4537,10 +4519,10 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF48" s="1">
-        <v>-1808961.0</v>
+        <v>-1855161.0</v>
       </c>
       <c r="AG48" s="2"/>
       <c r="AH48" s="1">
@@ -4550,12 +4532,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0.0</v>
+        <v>-7873.0</v>
       </c>
       <c r="AK48" s="1"/>
-      <c r="AL48" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL48" s="2"/>
       <c r="AM48"/>
     </row>
     <row r="49" spans="1:39">
@@ -4626,10 +4606,10 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF49" s="1">
-        <v>-1973412.0</v>
+        <v>-2023812.0</v>
       </c>
       <c r="AG49" s="2"/>
       <c r="AH49" s="1">
@@ -4639,12 +4619,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0.0</v>
+        <v>-7120.0</v>
       </c>
       <c r="AK49" s="1"/>
-      <c r="AL49" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL49" s="2"/>
       <c r="AM49"/>
     </row>
     <row r="50" spans="1:39">
@@ -4715,10 +4693,10 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF50" s="1">
-        <v>-2137863.0</v>
+        <v>-2192463.0</v>
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" s="1">
@@ -4728,12 +4706,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0.0</v>
+        <v>-6360.0</v>
       </c>
       <c r="AK50" s="1"/>
-      <c r="AL50" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL50" s="2"/>
       <c r="AM50"/>
     </row>
     <row r="51" spans="1:39">
@@ -4804,10 +4780,10 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF51" s="1">
-        <v>-2302314.0</v>
+        <v>-2361114.0</v>
       </c>
       <c r="AG51" s="2"/>
       <c r="AH51" s="1">
@@ -4817,12 +4793,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0.0</v>
+        <v>-5593.0</v>
       </c>
       <c r="AK51" s="1"/>
-      <c r="AL51" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL51" s="2"/>
       <c r="AM51"/>
     </row>
     <row r="52" spans="1:39">
@@ -4893,10 +4867,10 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF52" s="1">
-        <v>-2466765.0</v>
+        <v>-2529765.0</v>
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" s="1">
@@ -4906,12 +4880,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0.0</v>
+        <v>-4817.0</v>
       </c>
       <c r="AK52" s="1"/>
-      <c r="AL52" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL52" s="2"/>
       <c r="AM52"/>
     </row>
     <row r="53" spans="1:39">
@@ -4982,10 +4954,10 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF53" s="13">
-        <v>-2631216.0</v>
+        <v>-2698416.0</v>
       </c>
       <c r="AG53" s="14"/>
       <c r="AH53" s="13">
@@ -4995,12 +4967,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ53" s="13">
-        <v>0.0</v>
+        <v>-4034.0</v>
       </c>
       <c r="AK53" s="13"/>
-      <c r="AL53" s="14">
-        <v>0</v>
-      </c>
+      <c r="AL53" s="14"/>
       <c r="AM53" s="3"/>
     </row>
     <row r="54" spans="1:39">
@@ -5071,10 +5041,10 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF54" s="1">
-        <v>-2795667.0</v>
+        <v>-2867067.0</v>
       </c>
       <c r="AG54" s="2"/>
       <c r="AH54" s="1">
@@ -5084,12 +5054,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>0.0</v>
+        <v>-3243.0</v>
       </c>
       <c r="AK54" s="1"/>
-      <c r="AL54" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL54" s="2"/>
       <c r="AM54"/>
     </row>
     <row r="55" spans="1:39">
@@ -5160,10 +5128,10 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF55" s="1">
-        <v>-2960118.0</v>
+        <v>-3035718.0</v>
       </c>
       <c r="AG55" s="2"/>
       <c r="AH55" s="1">
@@ -5173,12 +5141,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>0.0</v>
+        <v>-2445.0</v>
       </c>
       <c r="AK55" s="1"/>
-      <c r="AL55" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL55" s="2"/>
       <c r="AM55"/>
     </row>
     <row r="56" spans="1:39">
@@ -5249,10 +5215,10 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF56" s="1">
-        <v>-3124569.0</v>
+        <v>-3204369.0</v>
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" s="1">
@@ -5262,12 +5228,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>0.0</v>
+        <v>-1638.0</v>
       </c>
       <c r="AK56" s="1"/>
-      <c r="AL56" s="2">
-        <v>0</v>
-      </c>
+      <c r="AL56" s="2"/>
       <c r="AM56"/>
     </row>
     <row r="57" spans="1:39">
@@ -5338,10 +5302,10 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF57" s="13">
-        <v>-3289020.0</v>
+        <v>-3373020.0</v>
       </c>
       <c r="AG57" s="14"/>
       <c r="AH57" s="13">
@@ -5351,12 +5315,10 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ57" s="13">
-        <v>0.0</v>
+        <v>-823.0</v>
       </c>
       <c r="AK57" s="13"/>
-      <c r="AL57" s="14">
-        <v>0</v>
-      </c>
+      <c r="AL57" s="14"/>
       <c r="AM57" s="3"/>
     </row>
     <row r="58" spans="1:39">
@@ -5427,10 +5389,10 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF58" s="1">
-        <v>-3370348.0</v>
+        <v>-3458548.0</v>
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" s="1">
@@ -5514,10 +5476,10 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF59" s="1">
-        <v>-3451676.0</v>
+        <v>-3544076.0</v>
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" s="1">
@@ -5601,10 +5563,10 @@
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF60" s="1">
-        <v>-3533004.0</v>
+        <v>-3629604.0</v>
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" s="1">
@@ -5688,10 +5650,10 @@
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF61" s="1">
-        <v>-3614332.0</v>
+        <v>-3715132.0</v>
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" s="1">
@@ -5775,10 +5737,10 @@
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF62" s="1">
-        <v>-3695660.0</v>
+        <v>-3800660.0</v>
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" s="1">
@@ -5862,10 +5824,10 @@
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF63" s="1">
-        <v>-3776988.0</v>
+        <v>-3886188.0</v>
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" s="1">
@@ -5949,10 +5911,10 @@
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF64" s="1">
-        <v>-3858316.0</v>
+        <v>-3971716.0</v>
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" s="1">
@@ -6036,10 +5998,10 @@
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF65" s="1">
-        <v>-3939644.0</v>
+        <v>-4057244.0</v>
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" s="1">
@@ -6123,10 +6085,10 @@
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF66" s="1">
-        <v>-4020972.0</v>
+        <v>-4142772.0</v>
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" s="1">
@@ -6210,10 +6172,10 @@
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF67" s="1">
-        <v>-4102300.0</v>
+        <v>-4228300.0</v>
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" s="1">
@@ -6297,10 +6259,10 @@
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF68" s="1">
-        <v>-4183628.0</v>
+        <v>-4313828.0</v>
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" s="1">
@@ -6384,10 +6346,10 @@
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF69" s="1">
-        <v>-4264956.0</v>
+        <v>-4399356.0</v>
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" s="1">
@@ -6471,10 +6433,10 @@
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF70" s="1">
-        <v>-4346284.0</v>
+        <v>-4484884.0</v>
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" s="1">
@@ -6558,10 +6520,10 @@
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF71" s="1">
-        <v>-4427612.0</v>
+        <v>-4570412.0</v>
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" s="1">
@@ -6645,10 +6607,10 @@
       </c>
       <c r="AD72" s="16"/>
       <c r="AE72" s="5">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF72" s="5">
-        <v>-4508940.0</v>
+        <v>-4655940.0</v>
       </c>
       <c r="AG72" s="16"/>
       <c r="AH72" s="5">
@@ -7039,6 +7001,8 @@
     <col min="32" max="32" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="33" max="33" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="34" max="34" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
@@ -7247,9 +7211,7 @@
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
@@ -7278,7 +7240,9 @@
         <v>0</v>
       </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="1">
         <v>0.0</v>
@@ -7330,9 +7294,7 @@
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
@@ -7361,7 +7323,9 @@
         <v>0</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="1">
         <v>0.0</v>
@@ -7413,9 +7377,7 @@
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -7444,7 +7406,9 @@
         <v>0</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="1">
         <v>0.0</v>
@@ -7496,9 +7460,7 @@
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1"/>
@@ -7527,7 +7489,9 @@
         <v>0</v>
       </c>
       <c r="X9" s="2"/>
-      <c r="Y9" s="1"/>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="1">
         <v>0.0</v>
@@ -7579,9 +7543,7 @@
       <c r="G10" s="1">
         <v>0.0</v>
       </c>
-      <c r="H10" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
@@ -7610,7 +7572,9 @@
         <v>0</v>
       </c>
       <c r="X10" s="2"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="1">
         <v>0.0</v>
@@ -7662,9 +7626,7 @@
       <c r="G11" s="1">
         <v>0.0</v>
       </c>
-      <c r="H11" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1"/>
@@ -7693,7 +7655,9 @@
         <v>0</v>
       </c>
       <c r="X11" s="2"/>
-      <c r="Y11" s="1"/>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="1">
         <v>0.0</v>
@@ -7745,9 +7709,7 @@
       <c r="G12" s="1">
         <v>0.0</v>
       </c>
-      <c r="H12" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
@@ -7776,7 +7738,9 @@
         <v>0</v>
       </c>
       <c r="X12" s="2"/>
-      <c r="Y12" s="1"/>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="1">
         <v>0.0</v>
@@ -7828,9 +7792,7 @@
       <c r="G13" s="1">
         <v>0.0</v>
       </c>
-      <c r="H13" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
@@ -7859,7 +7821,9 @@
         <v>0</v>
       </c>
       <c r="X13" s="2"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="1">
         <v>0.0</v>
@@ -7911,9 +7875,7 @@
       <c r="G14" s="1">
         <v>0.0</v>
       </c>
-      <c r="H14" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
@@ -7942,7 +7904,9 @@
         <v>0</v>
       </c>
       <c r="X14" s="2"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="1">
         <v>0.0</v>
@@ -7994,9 +7958,7 @@
       <c r="G15" s="1">
         <v>0.0</v>
       </c>
-      <c r="H15" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
@@ -8025,7 +7987,9 @@
         <v>0</v>
       </c>
       <c r="X15" s="2"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="1">
         <v>0.0</v>
@@ -8077,9 +8041,7 @@
       <c r="G16" s="1">
         <v>0.0</v>
       </c>
-      <c r="H16" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
@@ -8108,7 +8070,9 @@
         <v>0</v>
       </c>
       <c r="X16" s="2"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="1">
         <v>0.0</v>
@@ -8160,9 +8124,7 @@
       <c r="G17" s="1">
         <v>0.0</v>
       </c>
-      <c r="H17" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1"/>
@@ -8191,7 +8153,9 @@
         <v>0</v>
       </c>
       <c r="X17" s="2"/>
-      <c r="Y17" s="1"/>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="1">
         <v>0.0</v>
@@ -8243,9 +8207,7 @@
       <c r="G18" s="1">
         <v>0.0</v>
       </c>
-      <c r="H18" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="1"/>
@@ -8274,7 +8236,9 @@
         <v>0</v>
       </c>
       <c r="X18" s="2"/>
-      <c r="Y18" s="1"/>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="1">
         <v>0.0</v>
@@ -8326,9 +8290,7 @@
       <c r="G19" s="1">
         <v>0.0</v>
       </c>
-      <c r="H19" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1"/>
@@ -8357,7 +8319,9 @@
         <v>0</v>
       </c>
       <c r="X19" s="2"/>
-      <c r="Y19" s="1"/>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="1">
         <v>0.0</v>
@@ -8409,9 +8373,7 @@
       <c r="G20" s="1">
         <v>0.0</v>
       </c>
-      <c r="H20" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="1"/>
@@ -8440,7 +8402,9 @@
         <v>0</v>
       </c>
       <c r="X20" s="2"/>
-      <c r="Y20" s="1"/>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="1">
         <v>0.0</v>
@@ -8492,9 +8456,7 @@
       <c r="G21" s="1">
         <v>0.0</v>
       </c>
-      <c r="H21" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1"/>
@@ -8523,7 +8485,9 @@
         <v>0</v>
       </c>
       <c r="X21" s="2"/>
-      <c r="Y21" s="1"/>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="1">
         <v>0.0</v>
@@ -8575,9 +8539,7 @@
       <c r="G22" s="1">
         <v>0.0</v>
       </c>
-      <c r="H22" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
       <c r="K22" s="1"/>
@@ -8606,7 +8568,9 @@
         <v>0</v>
       </c>
       <c r="X22" s="2"/>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="1">
         <v>0.0</v>
@@ -8658,9 +8622,7 @@
       <c r="G23" s="1">
         <v>0.0</v>
       </c>
-      <c r="H23" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1"/>
@@ -8689,7 +8651,9 @@
         <v>0</v>
       </c>
       <c r="X23" s="2"/>
-      <c r="Y23" s="1"/>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1">
         <v>0.0</v>
@@ -8741,9 +8705,7 @@
       <c r="G24" s="1">
         <v>0.0</v>
       </c>
-      <c r="H24" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="1"/>
@@ -8772,7 +8734,9 @@
         <v>0</v>
       </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="1"/>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="1">
         <v>0.0</v>
@@ -8824,9 +8788,7 @@
       <c r="G25" s="1">
         <v>0.0</v>
       </c>
-      <c r="H25" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
@@ -8855,7 +8817,9 @@
         <v>0</v>
       </c>
       <c r="X25" s="2"/>
-      <c r="Y25" s="1"/>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="1">
         <v>0.0</v>
@@ -8907,9 +8871,7 @@
       <c r="G26" s="1">
         <v>0.0</v>
       </c>
-      <c r="H26" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
@@ -8938,7 +8900,9 @@
         <v>0</v>
       </c>
       <c r="X26" s="2"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="1">
         <v>0.0</v>
@@ -8990,9 +8954,7 @@
       <c r="G27" s="1">
         <v>0.0</v>
       </c>
-      <c r="H27" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
@@ -9021,7 +8983,9 @@
         <v>0</v>
       </c>
       <c r="X27" s="2"/>
-      <c r="Y27" s="1"/>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="1">
         <v>0.0</v>
@@ -9073,9 +9037,7 @@
       <c r="G28" s="1">
         <v>0.0</v>
       </c>
-      <c r="H28" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="1"/>
@@ -9104,7 +9066,9 @@
         <v>0</v>
       </c>
       <c r="X28" s="2"/>
-      <c r="Y28" s="1"/>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="1">
         <v>0.0</v>
@@ -9156,9 +9120,7 @@
       <c r="G29" s="1">
         <v>0.0</v>
       </c>
-      <c r="H29" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
@@ -9187,7 +9149,9 @@
         <v>0</v>
       </c>
       <c r="X29" s="2"/>
-      <c r="Y29" s="1"/>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="1">
         <v>0.0</v>
@@ -9239,9 +9203,7 @@
       <c r="G30" s="1">
         <v>0.0</v>
       </c>
-      <c r="H30" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
@@ -9270,7 +9232,9 @@
         <v>0</v>
       </c>
       <c r="X30" s="2"/>
-      <c r="Y30" s="1"/>
+      <c r="Y30" s="1">
+        <v>0</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="1">
         <v>0.0</v>
@@ -9322,9 +9286,7 @@
       <c r="G31" s="1">
         <v>0.0</v>
       </c>
-      <c r="H31" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1"/>
@@ -9353,7 +9315,9 @@
         <v>0</v>
       </c>
       <c r="X31" s="2"/>
-      <c r="Y31" s="1"/>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="1">
         <v>0.0</v>
@@ -9405,9 +9369,7 @@
       <c r="G32" s="1">
         <v>0.0</v>
       </c>
-      <c r="H32" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="1"/>
@@ -9436,7 +9398,9 @@
         <v>0</v>
       </c>
       <c r="X32" s="2"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="1">
+        <v>0</v>
+      </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="1">
         <v>0.0</v>
@@ -9488,9 +9452,7 @@
       <c r="G33" s="1">
         <v>0.0</v>
       </c>
-      <c r="H33" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1"/>
@@ -9519,7 +9481,9 @@
         <v>0</v>
       </c>
       <c r="X33" s="2"/>
-      <c r="Y33" s="1"/>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="1">
         <v>0.0</v>
@@ -9571,9 +9535,7 @@
       <c r="G34" s="1">
         <v>0.0</v>
       </c>
-      <c r="H34" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="1"/>
@@ -9602,7 +9564,9 @@
         <v>0</v>
       </c>
       <c r="X34" s="2"/>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="1">
         <v>0.0</v>
@@ -9654,9 +9618,7 @@
       <c r="G35" s="1">
         <v>0.0</v>
       </c>
-      <c r="H35" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
@@ -9685,7 +9647,9 @@
         <v>0</v>
       </c>
       <c r="X35" s="2"/>
-      <c r="Y35" s="1"/>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="1">
         <v>0.0</v>
@@ -9737,9 +9701,7 @@
       <c r="G36" s="1">
         <v>0.0</v>
       </c>
-      <c r="H36" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
@@ -9768,7 +9730,9 @@
         <v>0</v>
       </c>
       <c r="X36" s="2"/>
-      <c r="Y36" s="1"/>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="1">
         <v>0.0</v>
@@ -9820,9 +9784,7 @@
       <c r="G37" s="1">
         <v>0.0</v>
       </c>
-      <c r="H37" s="2">
-        <v>0.22</v>
-      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
@@ -9851,7 +9813,9 @@
         <v>0</v>
       </c>
       <c r="X37" s="2"/>
-      <c r="Y37" s="1"/>
+      <c r="Y37" s="1">
+        <v>0</v>
+      </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="1">
         <v>0.0</v>
@@ -9948,8 +9912,12 @@
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="2"/>
+      <c r="Y38" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA38" s="1">
         <v>3000000.0</v>
       </c>
@@ -9961,10 +9929,10 @@
       </c>
       <c r="AD38" s="2"/>
       <c r="AE38" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF38" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AG38" s="2">
         <v>0.47729233333333</v>
@@ -9976,7 +9944,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>0.0</v>
+        <v>-15000.0</v>
       </c>
       <c r="AK38" s="1"/>
       <c r="AL38" s="2"/>
@@ -10047,8 +10015,12 @@
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="9"/>
+      <c r="Y39" s="8">
+        <v>4200.0</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>0.003</v>
+      </c>
       <c r="AA39" s="8">
         <v>3000000.0</v>
       </c>
@@ -10060,10 +10032,10 @@
       </c>
       <c r="AD39" s="9"/>
       <c r="AE39" s="8">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF39" s="8">
-        <v>-328902.0</v>
+        <v>-337302.0</v>
       </c>
       <c r="AG39" s="9">
         <v>0.45435766666667</v>
@@ -10075,7 +10047,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ39" s="8">
-        <v>0.0</v>
+        <v>-14319.0</v>
       </c>
       <c r="AK39" s="8"/>
       <c r="AL39" s="9"/>
@@ -10146,8 +10118,12 @@
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="12"/>
+      <c r="Y40" s="11">
+        <v>4200.0</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>0.003</v>
+      </c>
       <c r="AA40" s="11">
         <v>3000000.0</v>
       </c>
@@ -10159,10 +10135,10 @@
       </c>
       <c r="AD40" s="12"/>
       <c r="AE40" s="11">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF40" s="11">
-        <v>-493353.0</v>
+        <v>-505953.0</v>
       </c>
       <c r="AG40" s="12">
         <v>0.43119366666667</v>
@@ -10174,7 +10150,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ40" s="11">
-        <v>0.0</v>
+        <v>-13631.0</v>
       </c>
       <c r="AK40" s="11"/>
       <c r="AL40" s="12"/>
@@ -10245,8 +10221,12 @@
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="2"/>
+      <c r="Y41" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA41" s="1">
         <v>3000000.0</v>
       </c>
@@ -10258,10 +10238,10 @@
       </c>
       <c r="AD41" s="2"/>
       <c r="AE41" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF41" s="1">
-        <v>-657804.0</v>
+        <v>-674604.0</v>
       </c>
       <c r="AG41" s="2">
         <v>0.40779766666667</v>
@@ -10273,7 +10253,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ41" s="1">
-        <v>0.0</v>
+        <v>-12936.0</v>
       </c>
       <c r="AK41" s="1"/>
       <c r="AL41" s="2"/>
@@ -10344,8 +10324,12 @@
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="2"/>
+      <c r="Y42" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA42" s="1">
         <v>3000000.0</v>
       </c>
@@ -10357,10 +10341,10 @@
       </c>
       <c r="AD42" s="2"/>
       <c r="AE42" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF42" s="1">
-        <v>-822255.0</v>
+        <v>-843255.0</v>
       </c>
       <c r="AG42" s="2">
         <v>0.384168</v>
@@ -10372,7 +10356,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ42" s="1">
-        <v>0.0</v>
+        <v>-12234.0</v>
       </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="2"/>
@@ -10443,8 +10427,12 @@
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="2"/>
+      <c r="Y43" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA43" s="1">
         <v>3000000.0</v>
       </c>
@@ -10456,10 +10444,10 @@
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF43" s="1">
-        <v>-986706.0</v>
+        <v>-1011906.0</v>
       </c>
       <c r="AG43" s="2">
         <v>0.360302</v>
@@ -10471,7 +10459,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ43" s="1">
-        <v>0.0</v>
+        <v>-11525.0</v>
       </c>
       <c r="AK43" s="1"/>
       <c r="AL43" s="2"/>
@@ -10542,8 +10530,12 @@
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="2"/>
+      <c r="Y44" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA44" s="1">
         <v>3000000.0</v>
       </c>
@@ -10555,10 +10547,10 @@
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF44" s="1">
-        <v>-1151157.0</v>
+        <v>-1180557.0</v>
       </c>
       <c r="AG44" s="2">
         <v>0.33619766666667</v>
@@ -10570,7 +10562,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ44" s="1">
-        <v>0.0</v>
+        <v>-10809.0</v>
       </c>
       <c r="AK44" s="1"/>
       <c r="AL44" s="2"/>
@@ -10641,8 +10633,12 @@
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="2"/>
+      <c r="Y45" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA45" s="1">
         <v>3000000.0</v>
       </c>
@@ -10654,10 +10650,10 @@
       </c>
       <c r="AD45" s="2"/>
       <c r="AE45" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF45" s="1">
-        <v>-1315608.0</v>
+        <v>-1349208.0</v>
       </c>
       <c r="AG45" s="2">
         <v>0.31185166666667</v>
@@ -10669,7 +10665,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ45" s="1">
-        <v>0.0</v>
+        <v>-10086.0</v>
       </c>
       <c r="AK45" s="1"/>
       <c r="AL45" s="2"/>
@@ -10740,8 +10736,12 @@
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="2"/>
+      <c r="Y46" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA46" s="1">
         <v>3000000.0</v>
       </c>
@@ -10753,10 +10753,10 @@
       </c>
       <c r="AD46" s="2"/>
       <c r="AE46" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF46" s="1">
-        <v>-1480059.0</v>
+        <v>-1517859.0</v>
       </c>
       <c r="AG46" s="2">
         <v>0.28726266666667</v>
@@ -10768,7 +10768,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ46" s="1">
-        <v>0.0</v>
+        <v>-9356.0</v>
       </c>
       <c r="AK46" s="1"/>
       <c r="AL46" s="2"/>
@@ -10839,8 +10839,12 @@
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="2"/>
+      <c r="Y47" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA47" s="1">
         <v>3000000.0</v>
       </c>
@@ -10852,10 +10856,10 @@
       </c>
       <c r="AD47" s="2"/>
       <c r="AE47" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF47" s="1">
-        <v>-1644510.0</v>
+        <v>-1686510.0</v>
       </c>
       <c r="AG47" s="2">
         <v>0.26242766666667</v>
@@ -10867,7 +10871,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ47" s="1">
-        <v>0.0</v>
+        <v>-8618.0</v>
       </c>
       <c r="AK47" s="1"/>
       <c r="AL47" s="2"/>
@@ -10938,8 +10942,12 @@
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="2"/>
+      <c r="Y48" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA48" s="1">
         <v>3000000.0</v>
       </c>
@@ -10951,10 +10959,10 @@
       </c>
       <c r="AD48" s="2"/>
       <c r="AE48" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF48" s="1">
-        <v>-1808961.0</v>
+        <v>-1855161.0</v>
       </c>
       <c r="AG48" s="2">
         <v>0.23734433333333</v>
@@ -10966,7 +10974,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ48" s="1">
-        <v>0.0</v>
+        <v>-7873.0</v>
       </c>
       <c r="AK48" s="1"/>
       <c r="AL48" s="2"/>
@@ -11037,8 +11045,12 @@
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="2"/>
+      <c r="Y49" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA49" s="1">
         <v>3000000.0</v>
       </c>
@@ -11050,10 +11062,10 @@
       </c>
       <c r="AD49" s="2"/>
       <c r="AE49" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF49" s="1">
-        <v>-1973412.0</v>
+        <v>-2023812.0</v>
       </c>
       <c r="AG49" s="2">
         <v>0.21201</v>
@@ -11065,7 +11077,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ49" s="1">
-        <v>0.0</v>
+        <v>-7120.0</v>
       </c>
       <c r="AK49" s="1"/>
       <c r="AL49" s="2"/>
@@ -11136,8 +11148,12 @@
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="2"/>
+      <c r="Y50" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA50" s="1">
         <v>3000000.0</v>
       </c>
@@ -11149,10 +11165,10 @@
       </c>
       <c r="AD50" s="2"/>
       <c r="AE50" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF50" s="1">
-        <v>-2137863.0</v>
+        <v>-2192463.0</v>
       </c>
       <c r="AG50" s="2">
         <v>0.18642266666667</v>
@@ -11164,7 +11180,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ50" s="1">
-        <v>0.0</v>
+        <v>-6360.0</v>
       </c>
       <c r="AK50" s="1"/>
       <c r="AL50" s="2"/>
@@ -11235,8 +11251,12 @@
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="2"/>
+      <c r="Y51" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA51" s="1">
         <v>3000000.0</v>
       </c>
@@ -11248,10 +11268,10 @@
       </c>
       <c r="AD51" s="2"/>
       <c r="AE51" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF51" s="1">
-        <v>-2302314.0</v>
+        <v>-2361114.0</v>
       </c>
       <c r="AG51" s="2">
         <v>0.160579</v>
@@ -11263,7 +11283,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ51" s="1">
-        <v>0.0</v>
+        <v>-5593.0</v>
       </c>
       <c r="AK51" s="1"/>
       <c r="AL51" s="2"/>
@@ -11334,8 +11354,12 @@
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="2"/>
+      <c r="Y52" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA52" s="1">
         <v>3000000.0</v>
       </c>
@@ -11347,10 +11371,10 @@
       </c>
       <c r="AD52" s="2"/>
       <c r="AE52" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF52" s="1">
-        <v>-2466765.0</v>
+        <v>-2529765.0</v>
       </c>
       <c r="AG52" s="2">
         <v>0.13447733333333</v>
@@ -11362,7 +11386,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ52" s="1">
-        <v>0.0</v>
+        <v>-4817.0</v>
       </c>
       <c r="AK52" s="1"/>
       <c r="AL52" s="2"/>
@@ -11433,8 +11457,12 @@
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="14"/>
+      <c r="Y53" s="13">
+        <v>4200.0</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>0.003</v>
+      </c>
       <c r="AA53" s="13">
         <v>3000000.0</v>
       </c>
@@ -11446,10 +11474,10 @@
       </c>
       <c r="AD53" s="14"/>
       <c r="AE53" s="13">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF53" s="13">
-        <v>-2631216.0</v>
+        <v>-2698416.0</v>
       </c>
       <c r="AG53" s="14">
         <v>0.10811433333333</v>
@@ -11461,7 +11489,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ53" s="13">
-        <v>0.0</v>
+        <v>-4034.0</v>
       </c>
       <c r="AK53" s="13"/>
       <c r="AL53" s="14"/>
@@ -11532,8 +11560,12 @@
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="2"/>
+      <c r="Y54" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA54" s="1">
         <v>3000000.0</v>
       </c>
@@ -11545,10 +11577,10 @@
       </c>
       <c r="AD54" s="2"/>
       <c r="AE54" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF54" s="1">
-        <v>-2795667.0</v>
+        <v>-2867067.0</v>
       </c>
       <c r="AG54" s="2">
         <v>0.081487666666667</v>
@@ -11560,7 +11592,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ54" s="1">
-        <v>0.0</v>
+        <v>-3243.0</v>
       </c>
       <c r="AK54" s="1"/>
       <c r="AL54" s="2"/>
@@ -11631,8 +11663,12 @@
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y55" s="1"/>
-      <c r="Z55" s="2"/>
+      <c r="Y55" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA55" s="1">
         <v>3000000.0</v>
       </c>
@@ -11644,10 +11680,10 @@
       </c>
       <c r="AD55" s="2"/>
       <c r="AE55" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF55" s="1">
-        <v>-2960118.0</v>
+        <v>-3035718.0</v>
       </c>
       <c r="AG55" s="2">
         <v>0.054595</v>
@@ -11659,7 +11695,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ55" s="1">
-        <v>0.0</v>
+        <v>-2445.0</v>
       </c>
       <c r="AK55" s="1"/>
       <c r="AL55" s="2"/>
@@ -11730,8 +11766,12 @@
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="2"/>
+      <c r="Y56" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA56" s="1">
         <v>3000000.0</v>
       </c>
@@ -11743,10 +11783,10 @@
       </c>
       <c r="AD56" s="2"/>
       <c r="AE56" s="1">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF56" s="1">
-        <v>-3124569.0</v>
+        <v>-3204369.0</v>
       </c>
       <c r="AG56" s="2">
         <v>0.027433333333333</v>
@@ -11758,7 +11798,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ56" s="1">
-        <v>0.0</v>
+        <v>-1638.0</v>
       </c>
       <c r="AK56" s="1"/>
       <c r="AL56" s="2"/>
@@ -11829,8 +11869,12 @@
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="14"/>
+      <c r="Y57" s="13">
+        <v>4200.0</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>0.003</v>
+      </c>
       <c r="AA57" s="13">
         <v>3000000.0</v>
       </c>
@@ -11842,10 +11886,10 @@
       </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="13">
-        <v>-164451.0</v>
+        <v>-168651.0</v>
       </c>
       <c r="AF57" s="13">
-        <v>-3289020.0</v>
+        <v>-3373020.0</v>
       </c>
       <c r="AG57" s="14"/>
       <c r="AH57" s="13">
@@ -11855,7 +11899,7 @@
         <v>-415615.0</v>
       </c>
       <c r="AJ57" s="13">
-        <v>0.0</v>
+        <v>-823.0</v>
       </c>
       <c r="AK57" s="13"/>
       <c r="AL57" s="14"/>
@@ -11916,8 +11960,12 @@
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="2"/>
+      <c r="Y58" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA58" s="1">
         <v>3000000.0</v>
       </c>
@@ -11929,10 +11977,10 @@
       </c>
       <c r="AD58" s="2"/>
       <c r="AE58" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF58" s="1">
-        <v>-3370348.0</v>
+        <v>-3458548.0</v>
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" s="1">
@@ -12003,8 +12051,12 @@
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="2"/>
+      <c r="Y59" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA59" s="1">
         <v>3000000.0</v>
       </c>
@@ -12016,10 +12068,10 @@
       </c>
       <c r="AD59" s="2"/>
       <c r="AE59" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF59" s="1">
-        <v>-3451676.0</v>
+        <v>-3544076.0</v>
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" s="1">
@@ -12090,8 +12142,12 @@
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="2"/>
+      <c r="Y60" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA60" s="1">
         <v>3000000.0</v>
       </c>
@@ -12103,10 +12159,10 @@
       </c>
       <c r="AD60" s="2"/>
       <c r="AE60" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF60" s="1">
-        <v>-3533004.0</v>
+        <v>-3629604.0</v>
       </c>
       <c r="AG60" s="2"/>
       <c r="AH60" s="1">
@@ -12177,8 +12233,12 @@
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="2"/>
+      <c r="Y61" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA61" s="1">
         <v>3000000.0</v>
       </c>
@@ -12190,10 +12250,10 @@
       </c>
       <c r="AD61" s="2"/>
       <c r="AE61" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF61" s="1">
-        <v>-3614332.0</v>
+        <v>-3715132.0</v>
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" s="1">
@@ -12264,8 +12324,12 @@
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="2"/>
+      <c r="Y62" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA62" s="1">
         <v>3000000.0</v>
       </c>
@@ -12277,10 +12341,10 @@
       </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF62" s="1">
-        <v>-3695660.0</v>
+        <v>-3800660.0</v>
       </c>
       <c r="AG62" s="2"/>
       <c r="AH62" s="1">
@@ -12351,8 +12415,12 @@
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="2"/>
+      <c r="Y63" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA63" s="1">
         <v>3000000.0</v>
       </c>
@@ -12364,10 +12432,10 @@
       </c>
       <c r="AD63" s="2"/>
       <c r="AE63" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF63" s="1">
-        <v>-3776988.0</v>
+        <v>-3886188.0</v>
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" s="1">
@@ -12438,8 +12506,12 @@
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="2"/>
+      <c r="Y64" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA64" s="1">
         <v>3000000.0</v>
       </c>
@@ -12451,10 +12523,10 @@
       </c>
       <c r="AD64" s="2"/>
       <c r="AE64" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF64" s="1">
-        <v>-3858316.0</v>
+        <v>-3971716.0</v>
       </c>
       <c r="AG64" s="2"/>
       <c r="AH64" s="1">
@@ -12525,8 +12597,12 @@
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="2"/>
+      <c r="Y65" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA65" s="1">
         <v>3000000.0</v>
       </c>
@@ -12538,10 +12614,10 @@
       </c>
       <c r="AD65" s="2"/>
       <c r="AE65" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF65" s="1">
-        <v>-3939644.0</v>
+        <v>-4057244.0</v>
       </c>
       <c r="AG65" s="2"/>
       <c r="AH65" s="1">
@@ -12612,8 +12688,12 @@
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="2"/>
+      <c r="Y66" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA66" s="1">
         <v>3000000.0</v>
       </c>
@@ -12625,10 +12705,10 @@
       </c>
       <c r="AD66" s="2"/>
       <c r="AE66" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF66" s="1">
-        <v>-4020972.0</v>
+        <v>-4142772.0</v>
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" s="1">
@@ -12699,8 +12779,12 @@
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y67" s="1"/>
-      <c r="Z67" s="2"/>
+      <c r="Y67" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA67" s="1">
         <v>3000000.0</v>
       </c>
@@ -12712,10 +12796,10 @@
       </c>
       <c r="AD67" s="2"/>
       <c r="AE67" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF67" s="1">
-        <v>-4102300.0</v>
+        <v>-4228300.0</v>
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" s="1">
@@ -12786,8 +12870,12 @@
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y68" s="1"/>
-      <c r="Z68" s="2"/>
+      <c r="Y68" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA68" s="1">
         <v>3000000.0</v>
       </c>
@@ -12799,10 +12887,10 @@
       </c>
       <c r="AD68" s="2"/>
       <c r="AE68" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF68" s="1">
-        <v>-4183628.0</v>
+        <v>-4313828.0</v>
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" s="1">
@@ -12873,8 +12961,12 @@
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="2"/>
+      <c r="Y69" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA69" s="1">
         <v>3000000.0</v>
       </c>
@@ -12886,10 +12978,10 @@
       </c>
       <c r="AD69" s="2"/>
       <c r="AE69" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF69" s="1">
-        <v>-4264956.0</v>
+        <v>-4399356.0</v>
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" s="1">
@@ -12960,8 +13052,12 @@
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="2"/>
+      <c r="Y70" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA70" s="1">
         <v>3000000.0</v>
       </c>
@@ -12973,10 +13069,10 @@
       </c>
       <c r="AD70" s="2"/>
       <c r="AE70" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF70" s="1">
-        <v>-4346284.0</v>
+        <v>-4484884.0</v>
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" s="1">
@@ -13047,8 +13143,12 @@
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="2"/>
+      <c r="Y71" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0.003</v>
+      </c>
       <c r="AA71" s="1">
         <v>3000000.0</v>
       </c>
@@ -13060,10 +13160,10 @@
       </c>
       <c r="AD71" s="2"/>
       <c r="AE71" s="1">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF71" s="1">
-        <v>-4427612.0</v>
+        <v>-4570412.0</v>
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" s="1">
@@ -13134,8 +13234,12 @@
       <c r="X72" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="16"/>
+      <c r="Y72" s="5">
+        <v>4200.0</v>
+      </c>
+      <c r="Z72" s="16">
+        <v>0.003</v>
+      </c>
       <c r="AA72" s="5">
         <v>3000000.0</v>
       </c>
@@ -13147,10 +13251,10 @@
       </c>
       <c r="AD72" s="16"/>
       <c r="AE72" s="5">
-        <v>-81328.0</v>
+        <v>-85528.0</v>
       </c>
       <c r="AF72" s="5">
-        <v>-4508940.0</v>
+        <v>-4655940.0</v>
       </c>
       <c r="AG72" s="16"/>
       <c r="AH72" s="5">
